--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H2">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I2">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J2">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.1422325</v>
+        <v>15.5883645</v>
       </c>
       <c r="N2">
-        <v>8.284465000000001</v>
+        <v>31.176729</v>
       </c>
       <c r="O2">
-        <v>0.05151993114278786</v>
+        <v>0.1581198291206329</v>
       </c>
       <c r="P2">
-        <v>0.04062623503332275</v>
+        <v>0.1274188576832198</v>
       </c>
       <c r="Q2">
-        <v>19.3146875150425</v>
+        <v>116.0329342518023</v>
       </c>
       <c r="R2">
-        <v>77.25875006017</v>
+        <v>464.131737007209</v>
       </c>
       <c r="S2">
-        <v>0.006584348848136213</v>
+        <v>0.03268519568536889</v>
       </c>
       <c r="T2">
-        <v>0.003740051852461153</v>
+        <v>0.01967494419091706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H3">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I3">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J3">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>43.396443</v>
       </c>
       <c r="O3">
-        <v>0.1799176132839733</v>
+        <v>0.1467299140886628</v>
       </c>
       <c r="P3">
-        <v>0.2128120636550693</v>
+        <v>0.1773606587969815</v>
       </c>
       <c r="Q3">
-        <v>67.45064292498898</v>
+        <v>107.6746829851005</v>
       </c>
       <c r="R3">
-        <v>404.703857549934</v>
+        <v>646.048097910603</v>
       </c>
       <c r="S3">
-        <v>0.02299382595257178</v>
+        <v>0.03033076864272616</v>
       </c>
       <c r="T3">
-        <v>0.01959148201270388</v>
+        <v>0.02738653545435486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H4">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I4">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J4">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.819040666666666</v>
+        <v>14.23701866666667</v>
       </c>
       <c r="N4">
-        <v>29.457122</v>
+        <v>42.711056</v>
       </c>
       <c r="O4">
-        <v>0.1221264859070321</v>
+        <v>0.1444125173465499</v>
       </c>
       <c r="P4">
-        <v>0.144454948120037</v>
+        <v>0.1745594916632861</v>
       </c>
       <c r="Q4">
-        <v>45.78490033433933</v>
+        <v>105.9741097849627</v>
       </c>
       <c r="R4">
-        <v>274.709402006036</v>
+        <v>635.844658709776</v>
       </c>
       <c r="S4">
-        <v>0.01560800585273021</v>
+        <v>0.02985173595961588</v>
       </c>
       <c r="T4">
-        <v>0.0132985248539615</v>
+        <v>0.02695400287615591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H5">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I5">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J5">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.1404235</v>
+        <v>35.489853</v>
       </c>
       <c r="N5">
-        <v>66.28084699999999</v>
+        <v>70.97970599999999</v>
       </c>
       <c r="O5">
-        <v>0.4121913332394617</v>
+        <v>0.3599896250742904</v>
       </c>
       <c r="P5">
-        <v>0.3250350225910429</v>
+        <v>0.2900930709315522</v>
       </c>
       <c r="Q5">
-        <v>154.5294533850215</v>
+        <v>264.1708679416065</v>
       </c>
       <c r="R5">
-        <v>618.1178135400859</v>
+        <v>1056.683471766426</v>
       </c>
       <c r="S5">
-        <v>0.05267886563561347</v>
+        <v>0.07441401502703995</v>
       </c>
       <c r="T5">
-        <v>0.02992272942248464</v>
+        <v>0.04479372272305094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H6">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I6">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J6">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.370695666666666</v>
+        <v>9.535699666666666</v>
       </c>
       <c r="N6">
-        <v>22.112087</v>
+        <v>28.607099</v>
       </c>
       <c r="O6">
-        <v>0.09167465448187939</v>
+        <v>0.09672491311317545</v>
       </c>
       <c r="P6">
-        <v>0.108435589206941</v>
+        <v>0.1169168156226645</v>
       </c>
       <c r="Q6">
-        <v>34.36858833253433</v>
+        <v>70.97955737866316</v>
       </c>
       <c r="R6">
-        <v>206.211529995206</v>
+        <v>425.877344271979</v>
       </c>
       <c r="S6">
-        <v>0.01171620171556745</v>
+        <v>0.01999415715496689</v>
       </c>
       <c r="T6">
-        <v>0.009982582091436461</v>
+        <v>0.01805330752591265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H7">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I7">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J7">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.46270966666667</v>
+        <v>9.269349333333333</v>
       </c>
       <c r="N7">
-        <v>34.38812900000001</v>
+        <v>27.808048</v>
       </c>
       <c r="O7">
-        <v>0.1425699819448656</v>
+        <v>0.0940232012566885</v>
       </c>
       <c r="P7">
-        <v>0.1686361413935869</v>
+        <v>0.113651105302296</v>
       </c>
       <c r="Q7">
-        <v>53.44911356070034</v>
+        <v>68.99696255830133</v>
       </c>
       <c r="R7">
-        <v>320.694681364202</v>
+        <v>413.981775349808</v>
       </c>
       <c r="S7">
-        <v>0.01822072498109088</v>
+        <v>0.01943568209712081</v>
       </c>
       <c r="T7">
-        <v>0.01552464589676257</v>
+        <v>0.01754904411102085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H8">
         <v>10.060577</v>
       </c>
       <c r="I8">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J8">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.1422325</v>
+        <v>15.5883645</v>
       </c>
       <c r="N8">
-        <v>8.284465000000001</v>
+        <v>31.176729</v>
       </c>
       <c r="O8">
-        <v>0.05151993114278786</v>
+        <v>0.1581198291206329</v>
       </c>
       <c r="P8">
-        <v>0.04062623503332275</v>
+        <v>0.1274188576832198</v>
       </c>
       <c r="Q8">
-        <v>13.89108300605083</v>
+        <v>52.2759804521055</v>
       </c>
       <c r="R8">
-        <v>83.34649803630499</v>
+        <v>313.655882712633</v>
       </c>
       <c r="S8">
-        <v>0.004735449968787863</v>
+        <v>0.01472556616566859</v>
       </c>
       <c r="T8">
-        <v>0.004034756246173554</v>
+        <v>0.01329614308927991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H9">
         <v>10.060577</v>
       </c>
       <c r="I9">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J9">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>43.396443</v>
       </c>
       <c r="O9">
-        <v>0.1799176132839733</v>
+        <v>0.1467299140886628</v>
       </c>
       <c r="P9">
-        <v>0.2128120636550693</v>
+        <v>0.1773606587969815</v>
       </c>
       <c r="Q9">
         <v>48.51036181417899</v>
       </c>
       <c r="R9">
-        <v>436.5932563276109</v>
+        <v>436.593256327611</v>
       </c>
       <c r="S9">
-        <v>0.01653711170243375</v>
+        <v>0.01366483299667016</v>
       </c>
       <c r="T9">
-        <v>0.02113522954783013</v>
+        <v>0.01850756426993285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H10">
         <v>10.060577</v>
       </c>
       <c r="I10">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J10">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.819040666666666</v>
+        <v>14.23701866666667</v>
       </c>
       <c r="N10">
-        <v>29.457122</v>
+        <v>42.711056</v>
       </c>
       <c r="O10">
-        <v>0.1221264859070321</v>
+        <v>0.1444125173465499</v>
       </c>
       <c r="P10">
-        <v>0.144454948120037</v>
+        <v>0.1745594916632861</v>
       </c>
       <c r="Q10">
-        <v>32.92840489771044</v>
+        <v>47.74420751547911</v>
       </c>
       <c r="R10">
-        <v>296.3556440793939</v>
+        <v>429.697867639312</v>
       </c>
       <c r="S10">
-        <v>0.01122524527980827</v>
+        <v>0.01344901579494493</v>
       </c>
       <c r="T10">
-        <v>0.01434640703820903</v>
+        <v>0.01821526280291455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H11">
         <v>10.060577</v>
       </c>
       <c r="I11">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J11">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.1404235</v>
+        <v>35.489853</v>
       </c>
       <c r="N11">
-        <v>66.28084699999999</v>
+        <v>70.97970599999999</v>
       </c>
       <c r="O11">
-        <v>0.4121913332394617</v>
+        <v>0.3599896250742904</v>
       </c>
       <c r="P11">
-        <v>0.3250350225910429</v>
+        <v>0.2900930709315522</v>
       </c>
       <c r="Q11">
-        <v>111.1372608114531</v>
+        <v>119.016132941727</v>
       </c>
       <c r="R11">
-        <v>666.8235648687188</v>
+        <v>714.096797650362</v>
       </c>
       <c r="S11">
-        <v>0.03788653037430697</v>
+        <v>0.03352552979893124</v>
       </c>
       <c r="T11">
-        <v>0.03228054695564814</v>
+        <v>0.03027117846169878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H12">
         <v>10.060577</v>
       </c>
       <c r="I12">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J12">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.370695666666666</v>
+        <v>9.535699666666666</v>
       </c>
       <c r="N12">
-        <v>22.112087</v>
+        <v>28.607099</v>
       </c>
       <c r="O12">
-        <v>0.09167465448187939</v>
+        <v>0.09672491311317545</v>
       </c>
       <c r="P12">
-        <v>0.108435589206941</v>
+        <v>0.1169168156226645</v>
       </c>
       <c r="Q12">
-        <v>24.71781709935544</v>
+        <v>31.97821358179144</v>
       </c>
       <c r="R12">
-        <v>222.460353894199</v>
+        <v>287.803922236123</v>
       </c>
       <c r="S12">
-        <v>0.008426267855476845</v>
+        <v>0.009007909481295739</v>
       </c>
       <c r="T12">
-        <v>0.01076917835239608</v>
+        <v>0.01220025621267697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H13">
         <v>10.060577</v>
       </c>
       <c r="I13">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J13">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.46270966666667</v>
+        <v>9.269349333333333</v>
       </c>
       <c r="N13">
-        <v>34.38812900000001</v>
+        <v>27.808048</v>
       </c>
       <c r="O13">
-        <v>0.1425699819448656</v>
+        <v>0.0940232012566885</v>
       </c>
       <c r="P13">
-        <v>0.1686361413935869</v>
+        <v>0.113651105302296</v>
       </c>
       <c r="Q13">
-        <v>38.44049107671478</v>
+        <v>31.08500090263288</v>
       </c>
       <c r="R13">
-        <v>345.964419690433</v>
+        <v>279.765008123696</v>
       </c>
       <c r="S13">
-        <v>0.01310430743161834</v>
+        <v>0.008756301337494131</v>
       </c>
       <c r="T13">
-        <v>0.01674793945981689</v>
+        <v>0.01185947971775885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H14">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I14">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J14">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.1422325</v>
+        <v>15.5883645</v>
       </c>
       <c r="N14">
-        <v>8.284465000000001</v>
+        <v>31.176729</v>
       </c>
       <c r="O14">
-        <v>0.05151993114278786</v>
+        <v>0.1581198291206329</v>
       </c>
       <c r="P14">
-        <v>0.04062623503332275</v>
+        <v>0.1274188576832198</v>
       </c>
       <c r="Q14">
-        <v>54.3265349203675</v>
+        <v>112.7634800447265</v>
       </c>
       <c r="R14">
-        <v>325.959209522205</v>
+        <v>676.580880268359</v>
       </c>
       <c r="S14">
-        <v>0.01851983664491434</v>
+        <v>0.0317642265550811</v>
       </c>
       <c r="T14">
-        <v>0.01577949869045051</v>
+        <v>0.0286808464031296</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H15">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I15">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J15">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>43.396443</v>
       </c>
       <c r="O15">
-        <v>0.1799176132839733</v>
+        <v>0.1467299140886628</v>
       </c>
       <c r="P15">
-        <v>0.2128120636550693</v>
+        <v>0.1773606587969815</v>
       </c>
       <c r="Q15">
-        <v>189.718819184199</v>
+        <v>104.640738807517</v>
       </c>
       <c r="R15">
-        <v>1707.469372657791</v>
+        <v>941.7666492676528</v>
       </c>
       <c r="S15">
-        <v>0.06467486919435644</v>
+        <v>0.02947614008590966</v>
       </c>
       <c r="T15">
-        <v>0.08265761464243136</v>
+        <v>0.03992229961408614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H16">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I16">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J16">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.819040666666666</v>
+        <v>14.23701866666667</v>
       </c>
       <c r="N16">
-        <v>29.457122</v>
+        <v>42.711056</v>
       </c>
       <c r="O16">
-        <v>0.1221264859070321</v>
+        <v>0.1444125173465499</v>
       </c>
       <c r="P16">
-        <v>0.144454948120037</v>
+        <v>0.1745594916632861</v>
       </c>
       <c r="Q16">
-        <v>128.7794578556793</v>
+        <v>102.9880825737084</v>
       </c>
       <c r="R16">
-        <v>1159.015120701114</v>
+        <v>926.8927431633759</v>
       </c>
       <c r="S16">
-        <v>0.04390072965639601</v>
+        <v>0.02901060508284358</v>
       </c>
       <c r="T16">
-        <v>0.05610725834721263</v>
+        <v>0.0392917819201452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H17">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I17">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J17">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.1404235</v>
+        <v>35.489853</v>
       </c>
       <c r="N17">
-        <v>66.28084699999999</v>
+        <v>70.97970599999999</v>
       </c>
       <c r="O17">
-        <v>0.4121913332394617</v>
+        <v>0.3599896250742904</v>
       </c>
       <c r="P17">
-        <v>0.3250350225910429</v>
+        <v>0.2900930709315522</v>
       </c>
       <c r="Q17">
-        <v>434.6459003806564</v>
+        <v>256.727338557921</v>
       </c>
       <c r="R17">
-        <v>2607.875402283938</v>
+        <v>1540.364031347526</v>
       </c>
       <c r="S17">
-        <v>0.1481701545152958</v>
+        <v>0.072317255033299</v>
       </c>
       <c r="T17">
-        <v>0.1262457549689027</v>
+        <v>0.06529735834459402</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H18">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I18">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J18">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.370695666666666</v>
+        <v>9.535699666666666</v>
       </c>
       <c r="N18">
-        <v>22.112087</v>
+        <v>28.607099</v>
       </c>
       <c r="O18">
-        <v>0.09167465448187939</v>
+        <v>0.09672491311317545</v>
       </c>
       <c r="P18">
-        <v>0.108435589206941</v>
+        <v>0.1169168156226645</v>
       </c>
       <c r="Q18">
-        <v>96.66873009242433</v>
+        <v>68.97956992695876</v>
       </c>
       <c r="R18">
-        <v>870.0185708318189</v>
+        <v>620.8161293426289</v>
       </c>
       <c r="S18">
-        <v>0.03295422932103512</v>
+        <v>0.01943078278501964</v>
       </c>
       <c r="T18">
-        <v>0.04211710084593607</v>
+        <v>0.02631693056889073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H19">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I19">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J19">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.46270966666667</v>
+        <v>9.269349333333333</v>
       </c>
       <c r="N19">
-        <v>34.38812900000001</v>
+        <v>27.808048</v>
       </c>
       <c r="O19">
-        <v>0.1425699819448656</v>
+        <v>0.0940232012566885</v>
       </c>
       <c r="P19">
-        <v>0.1686361413935869</v>
+        <v>0.113651105302296</v>
       </c>
       <c r="Q19">
-        <v>150.3366353743303</v>
+        <v>67.05283858206754</v>
       </c>
       <c r="R19">
-        <v>1353.029718368973</v>
+        <v>603.475547238608</v>
       </c>
       <c r="S19">
-        <v>0.05124954008128398</v>
+        <v>0.01888804385105249</v>
       </c>
       <c r="T19">
-        <v>0.06549939392858119</v>
+        <v>0.02558184835422777</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.491826000000001</v>
+        <v>4.1726995</v>
       </c>
       <c r="H20">
-        <v>6.983652000000001</v>
+        <v>8.345399</v>
       </c>
       <c r="I20">
-        <v>0.09570550923107637</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J20">
-        <v>0.06893986468041258</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.1422325</v>
+        <v>15.5883645</v>
       </c>
       <c r="N20">
-        <v>8.284465000000001</v>
+        <v>31.176729</v>
       </c>
       <c r="O20">
-        <v>0.05151993114278786</v>
+        <v>0.1581198291206329</v>
       </c>
       <c r="P20">
-        <v>0.04062623503332275</v>
+        <v>0.1274188576832198</v>
       </c>
       <c r="Q20">
-        <v>14.463955141545</v>
+        <v>65.04556075496775</v>
       </c>
       <c r="R20">
-        <v>57.85582056618001</v>
+        <v>260.182243019871</v>
       </c>
       <c r="S20">
-        <v>0.004930741245570503</v>
+        <v>0.018322615862898</v>
       </c>
       <c r="T20">
-        <v>0.002800767145671907</v>
+        <v>0.01102934943404672</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.491826000000001</v>
+        <v>4.1726995</v>
       </c>
       <c r="H21">
-        <v>6.983652000000001</v>
+        <v>8.345399</v>
       </c>
       <c r="I21">
-        <v>0.09570550923107637</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J21">
-        <v>0.06893986468041258</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>43.396443</v>
       </c>
       <c r="O21">
-        <v>0.1799176132839733</v>
+        <v>0.1467299140886628</v>
       </c>
       <c r="P21">
-        <v>0.2128120636550693</v>
+        <v>0.1773606587969815</v>
       </c>
       <c r="Q21">
-        <v>50.510942658306</v>
+        <v>60.3601053359595</v>
       </c>
       <c r="R21">
-        <v>303.065655949836</v>
+        <v>362.160632015757</v>
       </c>
       <c r="S21">
-        <v>0.01721910679898254</v>
+        <v>0.01700277483472045</v>
       </c>
       <c r="T21">
-        <v>0.01467123487073982</v>
+        <v>0.01535230120009353</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.491826000000001</v>
+        <v>4.1726995</v>
       </c>
       <c r="H22">
-        <v>6.983652000000001</v>
+        <v>8.345399</v>
       </c>
       <c r="I22">
-        <v>0.09570550923107637</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J22">
-        <v>0.06893986468041258</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.819040666666666</v>
+        <v>14.23701866666667</v>
       </c>
       <c r="N22">
-        <v>29.457122</v>
+        <v>42.711056</v>
       </c>
       <c r="O22">
-        <v>0.1221264859070321</v>
+        <v>0.1444125173465499</v>
       </c>
       <c r="P22">
-        <v>0.144454948120037</v>
+        <v>0.1745594916632861</v>
       </c>
       <c r="Q22">
-        <v>34.286381494924</v>
+        <v>59.40680067189066</v>
       </c>
       <c r="R22">
-        <v>205.718288969544</v>
+        <v>356.440804031344</v>
       </c>
       <c r="S22">
-        <v>0.01168817752433438</v>
+        <v>0.01673423944264592</v>
       </c>
       <c r="T22">
-        <v>0.009958704575811368</v>
+        <v>0.01510983276408304</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.491826000000001</v>
+        <v>4.1726995</v>
       </c>
       <c r="H23">
-        <v>6.983652000000001</v>
+        <v>8.345399</v>
       </c>
       <c r="I23">
-        <v>0.09570550923107637</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J23">
-        <v>0.06893986468041258</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.1404235</v>
+        <v>35.489853</v>
       </c>
       <c r="N23">
-        <v>66.28084699999999</v>
+        <v>70.97970599999999</v>
       </c>
       <c r="O23">
-        <v>0.4121913332394617</v>
+        <v>0.3599896250742904</v>
       </c>
       <c r="P23">
-        <v>0.3250350225910429</v>
+        <v>0.2900930709315522</v>
       </c>
       <c r="Q23">
-        <v>115.720592428311</v>
+        <v>148.0884918681735</v>
       </c>
       <c r="R23">
-        <v>462.882369713244</v>
+        <v>592.353967472694</v>
       </c>
       <c r="S23">
-        <v>0.03944898144831897</v>
+        <v>0.04171489212673453</v>
       </c>
       <c r="T23">
-        <v>0.02240787047382135</v>
+        <v>0.02511039500647752</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.491826000000001</v>
+        <v>4.1726995</v>
       </c>
       <c r="H24">
-        <v>6.983652000000001</v>
+        <v>8.345399</v>
       </c>
       <c r="I24">
-        <v>0.09570550923107637</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J24">
-        <v>0.06893986468041258</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.370695666666666</v>
+        <v>9.535699666666666</v>
       </c>
       <c r="N24">
-        <v>22.112087</v>
+        <v>28.607099</v>
       </c>
       <c r="O24">
-        <v>0.09167465448187939</v>
+        <v>0.09672491311317545</v>
       </c>
       <c r="P24">
-        <v>0.108435589206941</v>
+        <v>0.1169168156226645</v>
       </c>
       <c r="Q24">
-        <v>25.737186766954</v>
+        <v>39.78960923125017</v>
       </c>
       <c r="R24">
-        <v>154.423120601724</v>
+        <v>238.737655387501</v>
       </c>
       <c r="S24">
-        <v>0.008773769490771246</v>
+        <v>0.01120829333804055</v>
       </c>
       <c r="T24">
-        <v>0.007475534846467319</v>
+        <v>0.0101202948893506</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.491826000000001</v>
+        <v>4.1726995</v>
       </c>
       <c r="H25">
-        <v>6.983652000000001</v>
+        <v>8.345399</v>
       </c>
       <c r="I25">
-        <v>0.09570550923107637</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J25">
-        <v>0.06893986468041258</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.46270966666667</v>
+        <v>9.269349333333333</v>
       </c>
       <c r="N25">
-        <v>34.38812900000001</v>
+        <v>27.808048</v>
       </c>
       <c r="O25">
-        <v>0.1425699819448656</v>
+        <v>0.0940232012566885</v>
       </c>
       <c r="P25">
-        <v>0.1686361413935869</v>
+        <v>0.113651105302296</v>
       </c>
       <c r="Q25">
-        <v>40.02578764451801</v>
+        <v>38.67820932852533</v>
       </c>
       <c r="R25">
-        <v>240.1547258671081</v>
+        <v>232.069255971152</v>
       </c>
       <c r="S25">
-        <v>0.01364473272309873</v>
+        <v>0.01089522426382038</v>
       </c>
       <c r="T25">
-        <v>0.01162575276790081</v>
+        <v>0.009837615693126245</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.035661333333334</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H26">
-        <v>12.106984</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I26">
-        <v>0.1106111882410038</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J26">
-        <v>0.1195153823025432</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.1422325</v>
+        <v>15.5883645</v>
       </c>
       <c r="N26">
-        <v>8.284465000000001</v>
+        <v>31.176729</v>
       </c>
       <c r="O26">
-        <v>0.05151993114278786</v>
+        <v>0.1581198291206329</v>
       </c>
       <c r="P26">
-        <v>0.04062623503332275</v>
+        <v>0.1274188576832198</v>
       </c>
       <c r="Q26">
-        <v>16.71664753392667</v>
+        <v>40.70888398871249</v>
       </c>
       <c r="R26">
-        <v>100.29988520356</v>
+        <v>244.253303932275</v>
       </c>
       <c r="S26">
-        <v>0.005698680801798461</v>
+        <v>0.01146724288137514</v>
       </c>
       <c r="T26">
-        <v>0.004855460011520541</v>
+        <v>0.01035410798300994</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.035661333333334</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H27">
-        <v>12.106984</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I27">
-        <v>0.1106111882410038</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J27">
-        <v>0.1195153823025432</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>43.396443</v>
       </c>
       <c r="O27">
-        <v>0.1799176132839733</v>
+        <v>0.1467299140886628</v>
       </c>
       <c r="P27">
-        <v>0.2128120636550693</v>
+        <v>0.1773606587969815</v>
       </c>
       <c r="Q27">
-        <v>58.377782339768</v>
+        <v>37.77648308582499</v>
       </c>
       <c r="R27">
-        <v>525.4000410579119</v>
+        <v>339.988347772425</v>
       </c>
       <c r="S27">
-        <v>0.01990090099082569</v>
+        <v>0.01064121794322408</v>
       </c>
       <c r="T27">
-        <v>0.02543431514632875</v>
+        <v>0.0144123989691329</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.035661333333334</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H28">
-        <v>12.106984</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I28">
-        <v>0.1106111882410038</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J28">
-        <v>0.1195153823025432</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.819040666666666</v>
+        <v>14.23701866666667</v>
       </c>
       <c r="N28">
-        <v>29.457122</v>
+        <v>42.711056</v>
       </c>
       <c r="O28">
-        <v>0.1221264859070321</v>
+        <v>0.1444125173465499</v>
       </c>
       <c r="P28">
-        <v>0.144454948120037</v>
+        <v>0.1745594916632861</v>
       </c>
       <c r="Q28">
-        <v>39.62632274889422</v>
+        <v>37.17985560617777</v>
       </c>
       <c r="R28">
-        <v>356.636904740048</v>
+        <v>334.6187004556</v>
       </c>
       <c r="S28">
-        <v>0.01350855572187503</v>
+        <v>0.01047315457354992</v>
       </c>
       <c r="T28">
-        <v>0.01726458835006026</v>
+        <v>0.01418477499330942</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.035661333333334</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H29">
-        <v>12.106984</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I29">
-        <v>0.1106111882410038</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J29">
-        <v>0.1195153823025432</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>33.1404235</v>
+        <v>35.489853</v>
       </c>
       <c r="N29">
-        <v>66.28084699999999</v>
+        <v>70.97970599999999</v>
       </c>
       <c r="O29">
-        <v>0.4121913332394617</v>
+        <v>0.3599896250742904</v>
       </c>
       <c r="P29">
-        <v>0.3250350225910429</v>
+        <v>0.2900930709315522</v>
       </c>
       <c r="Q29">
-        <v>133.7435256892413</v>
+        <v>92.68145536072498</v>
       </c>
       <c r="R29">
-        <v>802.4611541354479</v>
+        <v>556.0887321643499</v>
       </c>
       <c r="S29">
-        <v>0.04559297315226041</v>
+        <v>0.02610734206114438</v>
       </c>
       <c r="T29">
-        <v>0.03884668498668425</v>
+        <v>0.02357308043849946</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.035661333333334</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H30">
-        <v>12.106984</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I30">
-        <v>0.1106111882410038</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J30">
-        <v>0.1195153823025432</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.370695666666666</v>
+        <v>9.535699666666666</v>
       </c>
       <c r="N30">
-        <v>22.112087</v>
+        <v>28.607099</v>
       </c>
       <c r="O30">
-        <v>0.09167465448187939</v>
+        <v>0.09672491311317545</v>
       </c>
       <c r="P30">
-        <v>0.108435589206941</v>
+        <v>0.1169168156226645</v>
       </c>
       <c r="Q30">
-        <v>29.74563150173422</v>
+        <v>24.9024002153361</v>
       </c>
       <c r="R30">
-        <v>267.710683515608</v>
+        <v>224.121601938025</v>
       </c>
       <c r="S30">
-        <v>0.01014024246382414</v>
+        <v>0.007014731027203949</v>
       </c>
       <c r="T30">
-        <v>0.01295972089926908</v>
+        <v>0.00950070779159211</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.035661333333334</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H31">
-        <v>12.106984</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I31">
-        <v>0.1106111882410038</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J31">
-        <v>0.1195153823025432</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.46270966666667</v>
+        <v>9.269349333333333</v>
       </c>
       <c r="N31">
-        <v>34.38812900000001</v>
+        <v>27.808048</v>
       </c>
       <c r="O31">
-        <v>0.1425699819448656</v>
+        <v>0.0940232012566885</v>
       </c>
       <c r="P31">
-        <v>0.1686361413935869</v>
+        <v>0.113651105302296</v>
       </c>
       <c r="Q31">
-        <v>46.2596141769929</v>
+        <v>24.20682853942222</v>
       </c>
       <c r="R31">
-        <v>416.3365275929361</v>
+        <v>217.8614568548</v>
       </c>
       <c r="S31">
-        <v>0.01576983511042004</v>
+        <v>0.006818796170544127</v>
       </c>
       <c r="T31">
-        <v>0.02015461290868027</v>
+        <v>0.009235334848268516</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.825948666666666</v>
+        <v>11.194306</v>
       </c>
       <c r="H32">
-        <v>23.477846</v>
+        <v>33.582918</v>
       </c>
       <c r="I32">
-        <v>0.2144970575164961</v>
+        <v>0.3108717119390497</v>
       </c>
       <c r="J32">
-        <v>0.2317640578636458</v>
+        <v>0.3483272993482625</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.1422325</v>
+        <v>15.5883645</v>
       </c>
       <c r="N32">
-        <v>8.284465000000001</v>
+        <v>31.176729</v>
       </c>
       <c r="O32">
-        <v>0.05151993114278786</v>
+        <v>0.1581198291206329</v>
       </c>
       <c r="P32">
-        <v>0.04062623503332275</v>
+        <v>0.1274188576832198</v>
       </c>
       <c r="Q32">
-        <v>32.41689891039834</v>
+        <v>174.500922252537</v>
       </c>
       <c r="R32">
-        <v>194.50139346239</v>
+        <v>1047.005533515222</v>
       </c>
       <c r="S32">
-        <v>0.01105087363358048</v>
+        <v>0.04915498197024114</v>
       </c>
       <c r="T32">
-        <v>0.009415701087045087</v>
+        <v>0.04438346658283654</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.825948666666666</v>
+        <v>11.194306</v>
       </c>
       <c r="H33">
-        <v>23.477846</v>
+        <v>33.582918</v>
       </c>
       <c r="I33">
-        <v>0.2144970575164961</v>
+        <v>0.3108717119390497</v>
       </c>
       <c r="J33">
-        <v>0.2317640578636458</v>
+        <v>0.3483272993482625</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>43.396443</v>
       </c>
       <c r="O33">
-        <v>0.1799176132839733</v>
+        <v>0.1467299140886628</v>
       </c>
       <c r="P33">
-        <v>0.2128120636550693</v>
+        <v>0.1773606587969815</v>
       </c>
       <c r="Q33">
-        <v>113.206111744642</v>
+        <v>161.931020751186</v>
       </c>
       <c r="R33">
-        <v>1018.855005701778</v>
+        <v>1457.379186760674</v>
       </c>
       <c r="S33">
-        <v>0.03859179864480312</v>
+        <v>0.04561417958541229</v>
       </c>
       <c r="T33">
-        <v>0.04932218743503534</v>
+        <v>0.06177955928938121</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.825948666666666</v>
+        <v>11.194306</v>
       </c>
       <c r="H34">
-        <v>23.477846</v>
+        <v>33.582918</v>
       </c>
       <c r="I34">
-        <v>0.2144970575164961</v>
+        <v>0.3108717119390497</v>
       </c>
       <c r="J34">
-        <v>0.2317640578636458</v>
+        <v>0.3483272993482625</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.819040666666666</v>
+        <v>14.23701866666667</v>
       </c>
       <c r="N34">
-        <v>29.457122</v>
+        <v>42.711056</v>
       </c>
       <c r="O34">
-        <v>0.1221264859070321</v>
+        <v>0.1444125173465499</v>
       </c>
       <c r="P34">
-        <v>0.144454948120037</v>
+        <v>0.1745594916632861</v>
       </c>
       <c r="Q34">
-        <v>76.84330821324576</v>
+        <v>159.3735434823786</v>
       </c>
       <c r="R34">
-        <v>691.5897739192119</v>
+        <v>1434.361891341408</v>
       </c>
       <c r="S34">
-        <v>0.02619577187188821</v>
+        <v>0.04489376649294969</v>
       </c>
       <c r="T34">
-        <v>0.0334794649547822</v>
+        <v>0.06080383630667797</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.825948666666666</v>
+        <v>11.194306</v>
       </c>
       <c r="H35">
-        <v>23.477846</v>
+        <v>33.582918</v>
       </c>
       <c r="I35">
-        <v>0.2144970575164961</v>
+        <v>0.3108717119390497</v>
       </c>
       <c r="J35">
-        <v>0.2317640578636458</v>
+        <v>0.3483272993482625</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>33.1404235</v>
+        <v>35.489853</v>
       </c>
       <c r="N35">
-        <v>66.28084699999999</v>
+        <v>70.97970599999999</v>
       </c>
       <c r="O35">
-        <v>0.4121913332394617</v>
+        <v>0.3599896250742904</v>
       </c>
       <c r="P35">
-        <v>0.3250350225910429</v>
+        <v>0.2900930709315522</v>
       </c>
       <c r="Q35">
-        <v>259.3552531025936</v>
+        <v>397.2842743770179</v>
       </c>
       <c r="R35">
-        <v>1556.131518615562</v>
+        <v>2383.705646262108</v>
       </c>
       <c r="S35">
-        <v>0.08841382811366601</v>
+        <v>0.1119105910271413</v>
       </c>
       <c r="T35">
-        <v>0.07533143578350189</v>
+        <v>0.1010473359572315</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.825948666666666</v>
+        <v>11.194306</v>
       </c>
       <c r="H36">
-        <v>23.477846</v>
+        <v>33.582918</v>
       </c>
       <c r="I36">
-        <v>0.2144970575164961</v>
+        <v>0.3108717119390497</v>
       </c>
       <c r="J36">
-        <v>0.2317640578636458</v>
+        <v>0.3483272993482625</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.370695666666666</v>
+        <v>9.535699666666666</v>
       </c>
       <c r="N36">
-        <v>22.112087</v>
+        <v>28.607099</v>
       </c>
       <c r="O36">
-        <v>0.09167465448187939</v>
+        <v>0.09672491311317545</v>
       </c>
       <c r="P36">
-        <v>0.108435589206941</v>
+        <v>0.1169168156226645</v>
       </c>
       <c r="Q36">
-        <v>57.68268592495577</v>
+        <v>106.7455399927646</v>
       </c>
       <c r="R36">
-        <v>519.144173324602</v>
+        <v>960.7098599348819</v>
       </c>
       <c r="S36">
-        <v>0.01966394363520459</v>
+        <v>0.03006903932664869</v>
       </c>
       <c r="T36">
-        <v>0.02513147217143599</v>
+        <v>0.04072531863424148</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.825948666666666</v>
+        <v>11.194306</v>
       </c>
       <c r="H37">
-        <v>23.477846</v>
+        <v>33.582918</v>
       </c>
       <c r="I37">
-        <v>0.2144970575164961</v>
+        <v>0.3108717119390497</v>
       </c>
       <c r="J37">
-        <v>0.2317640578636458</v>
+        <v>0.3483272993482625</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.46270966666667</v>
+        <v>9.269349333333333</v>
       </c>
       <c r="N37">
-        <v>34.38812900000001</v>
+        <v>27.808048</v>
       </c>
       <c r="O37">
-        <v>0.1425699819448656</v>
+        <v>0.0940232012566885</v>
       </c>
       <c r="P37">
-        <v>0.1686361413935869</v>
+        <v>0.113651105302296</v>
       </c>
       <c r="Q37">
-        <v>89.70657743223713</v>
+        <v>103.7639328582293</v>
       </c>
       <c r="R37">
-        <v>807.3591968901342</v>
+        <v>933.875395724064</v>
       </c>
       <c r="S37">
-        <v>0.03058084161735364</v>
+        <v>0.02922915353665657</v>
       </c>
       <c r="T37">
-        <v>0.03908379643184523</v>
+        <v>0.03958778257789374</v>
       </c>
     </row>
   </sheetData>
